--- a/static/21数二.xlsx
+++ b/static/21数二.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>湖南科技大学 陈婉君 学生个人课表</t>
   </si>
@@ -51,70 +51,52 @@
     <t>第一二节</t>
   </si>
   <si>
-    <t xml:space="preserve">
-算法设计与分析
+    <t>算法设计与分析
 王志喜
 8-11([周])[01-02节]
-逸夫楼401
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-高级Web技术
+逸夫楼401</t>
+  </si>
+  <si>
+    <t>高级Web技术
 张琼冰
 2-9([周])[01-02节]
-第一教学楼103
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-算法设计与分析
+第一教学楼103</t>
+  </si>
+  <si>
+    <t>算法设计与分析
 王志喜
 2-11([周])[01-02节]
-第一教学楼303
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-操作系统
+第一教学楼303</t>
+  </si>
+  <si>
+    <t>操作系统
 石林
 9-14([周])[01-02节]
-第一教学楼503
-</t>
+第一教学楼503</t>
   </si>
   <si>
     <t>第三四节</t>
   </si>
   <si>
-    <t xml:space="preserve">
-操作系统
+    <t>操作系统
 石林
 2-14([周])[03-04节]
-第一教学楼204
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-人工智能导论
+第一教学楼204</t>
+  </si>
+  <si>
+    <t>人工智能导论
 彭理
 5-14([周])[03-04节]
-第一教学楼208
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-操作系统
+第一教学楼208</t>
+  </si>
+  <si>
+    <t>操作系统
 石林
 2-14([周])[03-04节]
-第一教学楼208
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-大学体育(4) 
+第一教学楼208</t>
+  </si>
+  <si>
+    <t>大学体育(4) 
 (女)
 刘慧玲
 13([周])[03-04节]
@@ -123,47 +105,39 @@
 (女)
 刘慧玲
 2-12([周])[03-04节]
-五区排球场1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-人工智能导论
+五区排球场1</t>
+  </si>
+  <si>
+    <t>人工智能导论
 彭理
 13-14([周])[03-04节]
 第一教学楼308
 算法设计与分析
 王志喜
 2-11([周])[03-04节]
-第一教学楼202
-</t>
+第一教学楼202</t>
   </si>
   <si>
     <t>第五六节</t>
   </si>
   <si>
-    <t xml:space="preserve">
-形势与政策
+    <t>形势与政策
 刘德碧
 13-14([周])[05-06节]
 第一教学楼503
 习近平新时代中国特色社会主义思想概论
 蔡洁
 15([周])[05-06节]
-第一教学楼204
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-习近平新时代中国特色社会主义思想概论
+第一教学楼204</t>
+  </si>
+  <si>
+    <t>习近平新时代中国特色社会主义思想概论
 蔡洁
 2-10([周])[05-06节]
-第一教学楼603
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-人工智能导论
+第一教学楼603</t>
+  </si>
+  <si>
+    <t>人工智能导论
 彭理
 10-12([周])[05-06节]
 第一教学楼205
@@ -174,82 +148,67 @@
 高级Web技术
 张琼冰
 2-9([周])[05-06节]
-第一教学楼103
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-习近平新时代中国特色社会主义思想概论
+第一教学楼103</t>
+  </si>
+  <si>
+    <t>习近平新时代中国特色社会主义思想概论
 蔡洁
 15([周])[05-06节]
 第一教学楼204
 毛泽东思想和中国特色社会主义理论体系概论
 蔡洁
 2-10([周])[05-06节]
-第一教学楼503
-</t>
+第一教学楼503</t>
   </si>
   <si>
     <t>第七八节</t>
   </si>
   <si>
-    <t xml:space="preserve">
-计算智能
+    <t>计算智能
 石林
 2-11([周])[07-08节]
 第一教学楼403
 毛泽东思想和中国特色社会主义理论体系概论
 蔡洁
 15([周])[07-08节]
-第一教学楼204
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-毛泽东思想和中国特色社会主义理论体系概论
+第一教学楼204</t>
+  </si>
+  <si>
+    <t>毛泽东思想和中国特色社会主义理论体系概论
 蔡洁
 2-10([周])[07-08节]
-第一教学楼503
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-人工智能导论
+第一教学楼503</t>
+  </si>
+  <si>
+    <t>人工智能导论
 彭理
 5-14([周])[07-08节]
-第一教学楼208
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-习近平新时代中国特色社会主义思想概论
+第一教学楼208</t>
+  </si>
+  <si>
+    <t>习近平新时代中国特色社会主义思想概论
 蔡洁
 2-10([周])[07-08节]
 第一教学楼503
 毛泽东思想和中国特色社会主义理论体系概论
 蔡洁
 15([周])[07-08节]
-第一教学楼302
-</t>
+第一教学楼302</t>
   </si>
   <si>
     <t>第九十节</t>
   </si>
   <si>
-    <t xml:space="preserve">
-高级Web技术
+    <t>高级Web技术
 张琼冰
 6-9([周])[09-10节]
-逸夫楼401
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-计算智能
+逸夫楼401</t>
+  </si>
+  <si>
+    <t>计算智能
 石林
 2-11([周])[09-10节]
-第一教学楼102
-</t>
+第一教学楼102</t>
   </si>
   <si>
     <t>备注：劳动 周姣术 15-18周;社会实践  21-22周;操作系统课程设计 郑秋匀 17-18周;综合实践能力创新实训(1) 李允怡 15-16周;</t>
@@ -285,109 +244,49 @@
     <t>课程属性</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>21电子商务[1-3]班,21大数据[1-3]班</t>
   </si>
   <si>
-    <t>2000016010</t>
-  </si>
-  <si>
     <t>社会实践</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
     <t>公共基础课</t>
   </si>
   <si>
     <t>必修</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>21大数据[1-3]班</t>
   </si>
   <si>
-    <t>2000026000</t>
-  </si>
-  <si>
     <t>劳动</t>
   </si>
   <si>
     <t>周姣术</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>21软件[1-3]班,21大数据[1-3]班</t>
   </si>
   <si>
-    <t>2200170030</t>
-  </si>
-  <si>
     <t>习近平新时代中国特色社会主义思想概论</t>
   </si>
   <si>
     <t>蔡洁</t>
   </si>
   <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2200169030</t>
-  </si>
-  <si>
     <t>毛泽东思想和中国特色社会主义理论体系概论</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>21大数据2班</t>
   </si>
   <si>
-    <t>2001785020</t>
-  </si>
-  <si>
     <t>综合实践能力创新实训(1)</t>
   </si>
   <si>
     <t>李允怡</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>专业课</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2001777020</t>
   </si>
   <si>
     <t>操作系统课程设计</t>
@@ -406,7 +305,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,13 +334,6 @@
       <sz val="9"/>
       <name val="Arial"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -908,48 +800,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,101 +854,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1072,6 +964,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1424,7 +1319,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
@@ -1470,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="76.5" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="51" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1483,334 +1378,302 @@
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="140.25" spans="1:8">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="165.75" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
+    <row r="6" s="1" customFormat="1" ht="178.5" spans="1:8">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="204" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
+    <row r="7" s="1" customFormat="1" ht="162.75" spans="1:8">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="188.25" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="5" t="s">
+    <row r="8" s="1" customFormat="1" ht="51" spans="1:8">
+      <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="76.5" spans="1:8">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:2">
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="23.25" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:9">
       <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="37.5" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2000016010</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>51</v>
+      <c r="F12" s="7">
+        <v>300</v>
+      </c>
+      <c r="G12" s="7">
+        <v>177</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:9">
-      <c r="A13" s="5" t="s">
-        <v>54</v>
+      <c r="A13" s="7">
+        <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2000026000</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="F13" s="7">
+        <v>120</v>
+      </c>
+      <c r="G13" s="7">
+        <v>94</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="36" spans="1:9">
-      <c r="A14" s="5" t="s">
-        <v>61</v>
+      <c r="A14" s="7">
+        <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2200170030</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="F14" s="7">
+        <v>216</v>
+      </c>
+      <c r="G14" s="7">
+        <v>207</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="36" spans="1:9">
-      <c r="A15" s="5" t="s">
-        <v>68</v>
+      <c r="A15" s="7">
+        <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2200169030</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="F15" s="7">
+        <v>216</v>
+      </c>
+      <c r="G15" s="7">
+        <v>207</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="24.75" spans="1:9">
-      <c r="A16" s="5" t="s">
-        <v>71</v>
+      <c r="A16" s="7">
+        <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2001785020</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="F16" s="7">
+        <v>45</v>
+      </c>
+      <c r="G16" s="7">
+        <v>31</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:9">
-      <c r="A17" s="5" t="s">
-        <v>79</v>
+      <c r="A17" s="7">
+        <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2001777020</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="F17" s="7">
+        <v>45</v>
+      </c>
+      <c r="G17" s="7">
+        <v>31</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
